--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Fall.121619.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Fall.121619.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2523,12 +2523,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3321,12 +3321,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3663,12 +3663,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3853,12 +3853,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4043,12 +4043,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4389,12 +4389,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4431,12 +4431,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4697,12 +4697,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4773,12 +4773,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4963,12 +4963,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5305,12 +5305,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5761,12 +5761,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5837,12 +5837,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5913,12 +5913,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6179,12 +6179,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6597,12 +6597,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7091,12 +7091,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7129,12 +7129,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7319,12 +7319,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7509,12 +7509,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7661,12 +7661,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8231,12 +8231,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8269,12 +8269,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8421,12 +8421,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8573,12 +8573,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8649,12 +8649,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9029,12 +9029,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9067,12 +9067,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9105,12 +9105,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9143,12 +9143,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9219,12 +9219,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9409,12 +9409,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9827,12 +9827,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9865,12 +9865,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10397,12 +10397,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10549,12 +10549,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10663,12 +10663,12 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11161,12 +11161,12 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11237,12 +11237,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11351,12 +11351,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11807,12 +11807,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12529,12 +12529,12 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12567,12 +12567,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12757,12 +12757,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13745,12 +13745,12 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13783,12 +13783,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14011,12 +14011,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14087,12 +14087,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14277,12 +14277,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14353,12 +14353,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14695,12 +14695,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14923,12 +14923,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15037,12 +15037,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15113,12 +15113,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15459,12 +15459,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15497,12 +15497,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15761,12 +15761,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16069,12 +16069,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16183,12 +16183,12 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16297,12 +16297,12 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16335,12 +16335,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16449,12 +16449,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16601,12 +16601,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16639,12 +16639,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16677,12 +16677,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16943,12 +16943,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18007,12 +18007,12 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18083,12 +18083,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18121,12 +18121,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18805,12 +18805,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19417,12 +19417,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19759,12 +19759,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20063,12 +20063,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20291,12 +20291,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20329,12 +20329,12 @@
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20367,12 +20367,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20633,12 +20633,12 @@
       <c r="H531" t="inlineStr"/>
       <c r="I531" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20747,12 +20747,12 @@
       <c r="H534" t="inlineStr"/>
       <c r="I534" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
